--- a/BeidPoly8Neu.xlsx
+++ b/BeidPoly8Neu.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\HM\Geodätische Grundlagen\Ausarbeitung\Aufgabe 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YY\Documents\GitHub\GG1_Uebung2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8235" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Messformular" sheetId="1" r:id="rId1"/>
     <sheet name="Berechnung Polygonzug" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,9 +288,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
-    <t>BeidPoly 12</t>
-  </si>
-  <si>
     <t>Zielpunkt</t>
   </si>
   <si>
@@ -487,12 +484,15 @@
   </si>
   <si>
     <t>Vß</t>
+  </si>
+  <si>
+    <t>BeidPoly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,48 +878,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -930,9 +888,51 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1547,11 +1547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
@@ -1560,66 +1560,66 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="47" t="s">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="49"/>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="49"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
@@ -1651,7 +1651,7 @@
     <row r="10" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="22">
         <v>3.734</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="14" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="16">
         <v>41.734999999999999</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="25">
         <v>45.481000000000002</v>
@@ -1777,61 +1777,61 @@
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="49"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="5"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="22">
         <v>196.99799999999999</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="25">
         <v>209.31700000000001</v>
@@ -1990,61 +1990,61 @@
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="59"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="60"/>
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="49"/>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="F34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="49"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="4"/>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="5"/>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="42" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="16">
         <v>21.582999999999998</v>
@@ -2203,61 +2203,61 @@
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="D46" s="62"/>
+      <c r="E46" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="59"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="60"/>
+      <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="48"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="49"/>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="F48" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="49"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
+      <c r="B49" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="4"/>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="5"/>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="22">
         <v>363.822</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="57" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="25">
         <v>205.244</v>
@@ -2414,19 +2414,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D5"/>
@@ -2438,6 +2425,19 @@
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="E18:G19"/>
     <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2449,15 +2449,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
@@ -2465,7 +2465,7 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="19" max="20" width="17.140625" customWidth="1"/>
     <col min="21" max="21" width="17.28515625" customWidth="1"/>
   </cols>
@@ -2484,44 +2484,44 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
-      <c r="C2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="C2" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="27"/>
       <c r="H2" s="45"/>
       <c r="I2" s="9"/>
       <c r="J2" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="9"/>
       <c r="M2" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="27">
         <v>515</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
+      <c r="S2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="45"/>
@@ -2530,7 +2530,7 @@
       <c r="K3" s="39"/>
       <c r="L3" s="40"/>
       <c r="M3" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="44">
         <v>6380000</v>
@@ -2540,19 +2540,19 @@
       <c r="Q3" s="40"/>
       <c r="R3" s="40"/>
       <c r="S3" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="28" t="s">
         <v>32</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="37">
         <v>4466802.9000000004</v>
@@ -2561,7 +2561,7 @@
         <v>5334969.0599999996</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="44">
         <f>ABS(D4-4500000)</f>
@@ -2590,16 +2590,16 @@
         <v>153017</v>
       </c>
       <c r="T4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="37">
         <v>4468365.76</v>
@@ -2608,13 +2608,13 @@
         <v>5334320</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="44">
         <f>ABS(D5-4500000)</f>
         <v>31634.240000000224</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="54">
         <f>(G5+G6)/2</f>
         <v>31743.550000000279</v>
       </c>
@@ -2634,19 +2634,19 @@
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
       <c r="S5" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="37">
         <v>4468147.1399999997</v>
@@ -2655,7 +2655,7 @@
         <v>5334426.3</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="44">
         <f t="shared" ref="G6:G7" si="0">ABS(D6-4500000)</f>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="61" t="e">
-        <f>ATAN(F14/G14)+200</f>
-        <v>#DIV/0!</v>
+      <c r="M6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="47">
+        <f>((ATAN((D5-D4)/(E5-E4))))+200</f>
+        <v>198.82283204607222</v>
       </c>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -2689,16 +2689,16 @@
         <v>153000</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U6" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="37">
         <v>4468017.78</v>
@@ -2707,7 +2707,7 @@
         <v>5334485.84</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="44">
         <f t="shared" si="0"/>
@@ -2718,12 +2718,12 @@
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="61" t="e">
+      <c r="M7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="47">
         <f>N6+200+D16-400</f>
-        <v>#DIV/0!</v>
+        <v>52.563832046072207</v>
       </c>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -2733,10 +2733,10 @@
         <v>153100</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -2750,12 +2750,12 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="M8" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="63" t="e">
+      <c r="M8" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="49">
         <f>N7+200+D20-400</f>
-        <v>#DIV/0!</v>
+        <v>49.563832046072207</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -2769,41 +2769,41 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
-      <c r="M9" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="63" t="e">
+      <c r="M9" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="49">
         <f>N8+200+D24-400</f>
-        <v>#DIV/0!</v>
+        <v>56.477332046072206</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="M10" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="63" t="e">
+      <c r="M10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="49">
         <f>N9+200+D28-400</f>
-        <v>#DIV/0!</v>
+        <v>61.718082046072197</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
@@ -2819,11 +2819,11 @@
       <c r="K11" s="26"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
-        <v>58</v>
+      <c r="B12" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -2853,7 +2853,7 @@
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="46">
         <v>198.82283204607222</v>
@@ -2879,8 +2879,8 @@
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
-        <v>59</v>
+      <c r="B16" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="C16" s="34">
         <v>3017</v>
@@ -2915,7 +2915,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="46">
         <v>52.563832046072207</v>
@@ -2934,7 +2934,7 @@
       <c r="B19" s="26"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="65">
+      <c r="E19" s="51">
         <f>E18+J4</f>
         <v>87.971033962330566</v>
       </c>
@@ -2948,7 +2948,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="34">
         <v>197</v>
@@ -2976,7 +2976,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="46">
         <v>49.563832046072207</v>
@@ -2995,7 +2995,7 @@
       <c r="B23" s="26"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="65">
+      <c r="E23" s="51">
         <f>E22+J5</f>
         <v>87.46802173710951</v>
       </c>
@@ -3009,7 +3009,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="34">
         <v>206.9135</v>
@@ -3037,7 +3037,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="46">
         <v>56.477332046072206</v>
@@ -3056,7 +3056,7 @@
       <c r="B27" s="26"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="65">
+      <c r="E27" s="51">
         <f>E26+J6</f>
         <v>67.855371455792806</v>
       </c>
@@ -3068,8 +3068,8 @@
       <c r="K27" s="26"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
-        <v>60</v>
+      <c r="B28" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="34">
         <v>3100</v>
@@ -3104,7 +3104,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="26"/>
       <c r="C30" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="46">
         <v>61.718082046072197</v>
@@ -3133,8 +3133,8 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="64" t="s">
-        <v>61</v>
+      <c r="B32" s="50" t="s">
+        <v>60</v>
       </c>
       <c r="C32" s="34">
         <v>3000</v>
@@ -3177,20 +3177,20 @@
       <c r="K34" s="26"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="67">
+      <c r="C37" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="53">
         <f>ABS(D30-D31)</f>
         <v>5.6843418860808015E-14</v>
       </c>
-      <c r="F37" s="66"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="67">
+      <c r="C38" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="53">
         <f>D37/2</f>
         <v>2.8421709430404007E-14</v>
       </c>
@@ -3215,7 +3215,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F6">
